--- a/data/trans_dic/P57_AF_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,65; 63,58</t>
+          <t>54,56; 63,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,34; 63,59</t>
+          <t>53,35; 63,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,18; 72,85</t>
+          <t>63,28; 72,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,93; 55,47</t>
+          <t>46,59; 55,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,43; 58,82</t>
+          <t>47,45; 58,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,6; 66,77</t>
+          <t>54,89; 66,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,71; 75,68</t>
+          <t>65,96; 76,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,93; 48,94</t>
+          <t>41,3; 49,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,51; 60,72</t>
+          <t>53,19; 60,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,93; 63,66</t>
+          <t>55,88; 63,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,82; 73,15</t>
+          <t>65,84; 72,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,55; 51,49</t>
+          <t>45,22; 51,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,43; 58,68</t>
+          <t>48,72; 58,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,83; 65,73</t>
+          <t>55,57; 65,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,76; 74,29</t>
+          <t>64,55; 74,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 60,72</t>
+          <t>51,05; 60,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,45; 64,28</t>
+          <t>54,34; 64,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,9; 71,86</t>
+          <t>60,01; 71,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,91; 75,01</t>
+          <t>65,16; 75,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 60,29</t>
+          <t>51,49; 60,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,8; 60,03</t>
+          <t>52,81; 60,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59,02; 66,87</t>
+          <t>59,81; 66,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>66,47; 73,38</t>
+          <t>66,03; 73,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,52; 59,37</t>
+          <t>52,86; 59,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,24; 69,8</t>
+          <t>61,19; 69,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,02; 65,03</t>
+          <t>57,31; 65,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,44; 80,04</t>
+          <t>72,65; 80,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 59,28</t>
+          <t>12,75; 59,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,59; 71,37</t>
+          <t>56,89; 70,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,61; 71,13</t>
+          <t>58,62; 70,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,93; 84,08</t>
+          <t>70,79; 83,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,06; 63,08</t>
+          <t>51,33; 63,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,5; 68,55</t>
+          <t>61,58; 68,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,73; 65,53</t>
+          <t>59,08; 65,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,14; 79,61</t>
+          <t>73,66; 79,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 58,79</t>
+          <t>16,68; 58,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,96; 66,58</t>
+          <t>60,88; 66,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,17; 67,09</t>
+          <t>61,42; 67,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,83; 77,92</t>
+          <t>72,43; 77,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,68; 62,8</t>
+          <t>55,68; 62,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,31; 68,68</t>
+          <t>61,74; 68,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,09; 73,86</t>
+          <t>66,97; 74,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,79; 77,87</t>
+          <t>71,51; 77,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,75; 81,59</t>
+          <t>55,53; 82,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,17; 66,43</t>
+          <t>62,08; 66,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,56; 68,89</t>
+          <t>64,52; 68,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,77; 77,02</t>
+          <t>72,97; 77,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,19; 73,57</t>
+          <t>57,32; 73,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,08; 67,67</t>
+          <t>57,38; 67,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,75; 71,38</t>
+          <t>63,16; 71,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,24; 81,0</t>
+          <t>74,13; 81,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,4; 67,33</t>
+          <t>57,5; 67,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,33; 70,69</t>
+          <t>62,36; 70,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,02; 73,64</t>
+          <t>67,17; 73,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,77; 83,92</t>
+          <t>77,93; 83,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,1; 64,53</t>
+          <t>41,96; 64,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,89; 68,02</t>
+          <t>61,49; 68,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>66,65; 71,88</t>
+          <t>66,55; 71,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,16; 81,83</t>
+          <t>77,27; 81,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,2; 64,16</t>
+          <t>49,2; 64,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,07; 52,92</t>
+          <t>42,15; 53,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,26; 58,33</t>
+          <t>45,52; 57,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,78; 75,48</t>
+          <t>64,25; 75,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,85; 46,23</t>
+          <t>26,47; 47,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,07; 61,5</t>
+          <t>55,79; 61,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,46; 66,53</t>
+          <t>60,62; 66,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,48; 79,29</t>
+          <t>74,14; 79,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,71; 62,56</t>
+          <t>55,39; 62,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>54,17; 59,05</t>
+          <t>54,03; 59,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>58,76; 64,14</t>
+          <t>58,65; 64,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>72,99; 77,76</t>
+          <t>73,13; 77,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>49,49; 57,24</t>
+          <t>49,66; 57,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>58,85; 62,34</t>
+          <t>58,84; 62,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>60,28; 63,72</t>
+          <t>60,27; 63,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72,59; 75,7</t>
+          <t>72,3; 75,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,47; 56,87</t>
+          <t>40,18; 56,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,56; 62,93</t>
+          <t>59,57; 62,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,26; 68,31</t>
+          <t>65,2; 68,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,48; 77,47</t>
+          <t>74,47; 77,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,45; 66,21</t>
+          <t>54,71; 65,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,8; 62,06</t>
+          <t>59,74; 62,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>63,28; 65,6</t>
+          <t>63,28; 65,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,9; 76,05</t>
+          <t>73,82; 75,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,54; 58,81</t>
+          <t>49,26; 58,93</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>278531</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>253846</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>292020</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>257985</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>164107</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>191504</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>242679</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>200993</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>442638</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>445349</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>534699</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>458979</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>256940; 299785</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>232239; 274462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>270981; 311501</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>233675; 279261</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>145526; 180684</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>171393; 208461</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>225894; 260325</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>184238; 221538</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>413586; 469361</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>417691; 475615</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>507456; 560405</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>428537; 487982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>196777</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>252801</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>262030</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>250650</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>220529</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>222177</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>258754</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>212807</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>417306</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>474977</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>520784</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>463458</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>178772; 214891</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>231351; 273989</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>242595; 280087</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>228934; 273373</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>202076; 239113</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>201170; 239794</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>239560; 276494</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>194850; 229072</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>390129; 443966</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>449503; 502926</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>490934; 543522</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>437062; 491540</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>354133</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>384284</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>398494</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>243607</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>107336</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>168336</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>127996</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94639</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>461468</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>552620</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>526491</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>338246</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>331354; 377100</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>359667; 409208</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>379160; 417999</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>84760; 394938</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>94889; 118312</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>151946; 182300</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>116497; 137629</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84773; 105242</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>436187; 486105</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>523894; 582185</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>505700; 548626</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>138452; 487992</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>791288</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>738263</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>857064</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>609007</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>465713</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>538175</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>615721</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>638655</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1257002</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1276438</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1472785</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1247663</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>753934; 824380</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>705835; 770754</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>825533; 884592</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>572695; 647152</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>441008; 490337</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>510757; 564728</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>588489; 639294</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>540071; 800186</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1212240; 1297371</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1233545; 1315823</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1432118; 1513041</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1146915; 1479720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>220251</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>340705</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>481005</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>294645</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>377711</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>531002</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>597516</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>473543</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>597961</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>871707</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1078522</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>768188</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>201165; 236984</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>319282; 360586</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>458510; 502110</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>269501; 316180</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>354047; 400529</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>506697; 555962</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>573925; 617876</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>348438; 534053</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>564658; 626971</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>838371; 905981</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1047025; 1103151</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>639121; 834831</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>142008</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>138634</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>200298</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>84695</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>731912</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>702241</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>829324</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>446773</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>873920</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>840874</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1029622</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>531468</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>125335; 157964</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>121486; 153815</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>183872; 215703</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>62970; 112644</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>696685; 765297</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>666937; 731585</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>799879; 857065</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>417812; 471515</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>835334; 915814</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>801749; 875370</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>998220; 1062185</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>492704; 566471</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2178</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3139</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3965</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1982988</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2108532</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2490911</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1740590</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2067307</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2353434</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2671991</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2067411</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4050295</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4461967</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5162902</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3808001</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1921402; 2038030</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2049609; 2165423</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2436828; 2542200</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1345864; 1897182</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2011246; 2123935</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2297367; 2410219</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2615951; 2720701</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1940549; 2329157</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3968041; 4123320</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4381608; 4543612</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5080954; 5229606</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3397061; 4064034</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P57_AF_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
